--- a/프로젝트/파이썬/역량향상도평가/역량향상도학생리스트.xlsx
+++ b/프로젝트/파이썬/역량향상도평가/역량향상도학생리스트.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\박주형\01.업무용 파일\2023\2023 북구 온라인 SW 코딩 교실 운영\2기\결과보고서\재균씨 전달\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F918E97-0E4F-4C9B-AAAC-E95ED89AA1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="1800" windowWidth="25485" windowHeight="19200" xr2:uid="{D9D85B43-6543-4DC3-A80A-3975E35E785B}"/>
+    <workbookView xWindow="5340" yWindow="5475" windowWidth="25485" windowHeight="19200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,11 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
-  <si>
-    <t>김재균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,26 +93,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이앤오즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박재균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최재균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>이온유</t>
+  </si>
+  <si>
+    <t>구암중학교</t>
+  </si>
+  <si>
+    <t>김민규</t>
+  </si>
+  <si>
+    <t>성광중학교</t>
+  </si>
+  <si>
+    <t>이다연</t>
+  </si>
+  <si>
+    <t>동평중학교</t>
+  </si>
+  <si>
+    <t>박민재</t>
+  </si>
+  <si>
+    <t>관음중학교</t>
+  </si>
+  <si>
+    <t>김성헌</t>
+  </si>
+  <si>
+    <t>김주현</t>
+  </si>
+  <si>
+    <t>경명여자중학교</t>
+  </si>
+  <si>
+    <t>박성빈</t>
+  </si>
+  <si>
+    <t>침산중학교</t>
+  </si>
+  <si>
+    <t>김성민</t>
+  </si>
+  <si>
+    <t>대구일중학교</t>
+  </si>
+  <si>
+    <t>박예서</t>
+  </si>
+  <si>
+    <t>관천중학교</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -496,12 +526,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EDBBDC-3A64-4120-B167-A9A57DBB5A10}">
-  <dimension ref="A1:P19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -514,50 +542,50 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="str">
         <f>IF(OR(C2 &lt; 5, C2 &gt; 6), IF(C2 &lt; 5, $P$1, $P$3), $P$2)</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLScKriEDYpcKaipchjiSRw6NR16rgotz-KuiBu_YKjuKi0FvfQ/viewform</v>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSfZcLQ-JWZagvvTHBBwuZMlNOv0aAVvvY5N-GDlSOBNGewJrA/viewform</v>
       </c>
       <c r="E2" s="2">
         <f>IF(OR(C2 &lt; 5, C2 &gt; 6), IF(C2 &lt; 5, $P$4, $P$6), $P$5)</f>
-        <v>143232423214211</v>
+        <v>143232432214211</v>
       </c>
       <c r="O2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -565,46 +593,46 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D19" si="0">IF(OR(C3 &lt; 5, C3 &gt; 6), IF(C3 &lt; 5, $P$1, $P$3), $P$2)</f>
+        <f t="shared" ref="D3:D8" si="0">IF(OR(C3 &lt; 5, C3 &gt; 6), IF(C3 &lt; 5, $P$1, $P$3), $P$2)</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSfZcLQ-JWZagvvTHBBwuZMlNOv0aAVvvY5N-GDlSOBNGewJrA/viewform</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E19" si="1">IF(OR(C3 &lt; 5, C3 &gt; 6), IF(C3 &lt; 5, $P$4, $P$6), $P$5)</f>
+        <f t="shared" ref="E3:E8" si="1">IF(OR(C3 &lt; 5, C3 &gt; 6), IF(C3 &lt; 5, $P$4, $P$6), $P$5)</f>
         <v>143232432214211</v>
       </c>
       <c r="O3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLScKriEDYpcKaipchjiSRw6NR16rgotz-KuiBu_YKjuKi0FvfQ/viewform</v>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSfZcLQ-JWZagvvTHBBwuZMlNOv0aAVvvY5N-GDlSOBNGewJrA/viewform</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="1"/>
-        <v>143232423214211</v>
+        <v>143232432214211</v>
       </c>
       <c r="O4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P4" s="2">
         <v>143232443321421</v>
@@ -612,30 +640,36 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLScKriEDYpcKaipchjiSRw6NR16rgotz-KuiBu_YKjuKi0FvfQ/viewform</v>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSfZcLQ-JWZagvvTHBBwuZMlNOv0aAVvvY5N-GDlSOBNGewJrA/viewform</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>143232423214211</v>
+        <v>143232432214211</v>
       </c>
       <c r="O5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P5" s="2">
         <v>143232423214211</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
       <c r="C6">
         <v>7</v>
       </c>
@@ -648,15 +682,21 @@
         <v>143232432214211</v>
       </c>
       <c r="O6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P6" s="2">
         <v>143232432214211</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
       <c r="C7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -668,8 +708,14 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
       <c r="C8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -681,154 +727,49 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
       <c r="C9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSe_Dobc9JJfAVtxfkv8rfpEdbCLwayRirExI4tV8xm2mi7-4A/viewform</v>
+        <f t="shared" ref="D9:D10" si="2">IF(OR(C9 &lt; 5, C9 &gt; 6), IF(C9 &lt; 5, $P$1, $P$3), $P$2)</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSfZcLQ-JWZagvvTHBBwuZMlNOv0aAVvvY5N-GDlSOBNGewJrA/viewform</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
-        <v>143232443321421</v>
+        <f t="shared" ref="E9:E10" si="3">IF(OR(C9 &lt; 5, C9 &gt; 6), IF(C9 &lt; 5, $P$4, $P$6), $P$5)</f>
+        <v>143232432214211</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
       <c r="C10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSe_Dobc9JJfAVtxfkv8rfpEdbCLwayRirExI4tV8xm2mi7-4A/viewform</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSfZcLQ-JWZagvvTHBBwuZMlNOv0aAVvvY5N-GDlSOBNGewJrA/viewform</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
-        <v>143232443321421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSe_Dobc9JJfAVtxfkv8rfpEdbCLwayRirExI4tV8xm2mi7-4A/viewform</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="1"/>
-        <v>143232443321421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSe_Dobc9JJfAVtxfkv8rfpEdbCLwayRirExI4tV8xm2mi7-4A/viewform</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="1"/>
-        <v>143232443321421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSe_Dobc9JJfAVtxfkv8rfpEdbCLwayRirExI4tV8xm2mi7-4A/viewform</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="1"/>
-        <v>143232443321421</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLScKriEDYpcKaipchjiSRw6NR16rgotz-KuiBu_YKjuKi0FvfQ/viewform</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="1"/>
-        <v>143232423214211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C15">
-        <v>6</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLScKriEDYpcKaipchjiSRw6NR16rgotz-KuiBu_YKjuKi0FvfQ/viewform</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="1"/>
-        <v>143232423214211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLScKriEDYpcKaipchjiSRw6NR16rgotz-KuiBu_YKjuKi0FvfQ/viewform</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="1"/>
-        <v>143232423214211</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSfZcLQ-JWZagvvTHBBwuZMlNOv0aAVvvY5N-GDlSOBNGewJrA/viewform</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="1"/>
-        <v>143232432214211</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18">
-        <v>8</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSfZcLQ-JWZagvvTHBBwuZMlNOv0aAVvvY5N-GDlSOBNGewJrA/viewform</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="1"/>
-        <v>143232432214211</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19">
-        <v>9</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSfZcLQ-JWZagvvTHBBwuZMlNOv0aAVvvY5N-GDlSOBNGewJrA/viewform</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>143232432214211</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P1" r:id="rId1" xr:uid="{4A704DEE-A2F7-41BA-8FAA-85D6840A83E6}"/>
-    <hyperlink ref="P2" r:id="rId2" xr:uid="{A49F69C0-17A1-4A70-AFAE-7C73D7D03333}"/>
-    <hyperlink ref="P3" r:id="rId3" xr:uid="{D7706D66-FB8C-4069-A733-2456935136DB}"/>
+    <hyperlink ref="P1" r:id="rId1"/>
+    <hyperlink ref="P3" r:id="rId2"/>
+    <hyperlink ref="P2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
